--- a/Bibsam_tidskriftslistor/scifree_data_mdpi.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_mdpi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1271">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -3829,6 +3829,9 @@
   </si>
   <si>
     <t>https://www.mdpi.com/journal/zoonoticdis</t>
+  </si>
+  <si>
+    <t>HEJHEJ</t>
   </si>
 </sst>
 </file>
@@ -3879,53 +3882,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -3987,8 +3944,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G421" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:G421"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G422" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G422"/>
   <sortState ref="A2:G421">
     <sortCondition ref="D1:D421"/>
   </sortState>
@@ -4268,9 +4225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="D422" sqref="D422"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12706,15 +12665,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D422" t="s">
+        <v>1270</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
